--- a/base_code_lab_02/robot_python_code/data_log.xlsx
+++ b/base_code_lab_02/robot_python_code/data_log.xlsx
@@ -983,7 +983,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D10"/>
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -1260,7 +1260,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -1299,8 +1299,7 @@
         <v>23.9</v>
       </c>
       <c r="E2">
-        <f>--5.7</f>
-        <v>5.7</v>
+        <v>-5.7</v>
       </c>
       <c r="F2">
         <v>-36</v>
@@ -1320,7 +1319,7 @@
         <v>46.4</v>
       </c>
       <c r="E3">
-        <v>29.1</v>
+        <v>-29.1</v>
       </c>
       <c r="F3">
         <v>-70</v>
@@ -1340,7 +1339,7 @@
         <v>69.9</v>
       </c>
       <c r="E4">
-        <v>21.5</v>
+        <v>-21.5</v>
       </c>
       <c r="F4">
         <v>-32</v>
@@ -1360,7 +1359,7 @@
         <v>119</v>
       </c>
       <c r="E5">
-        <v>76.2</v>
+        <v>-76.2</v>
       </c>
       <c r="F5">
         <v>-70</v>
@@ -1380,7 +1379,7 @@
         <v>102.4</v>
       </c>
       <c r="E6">
-        <v>17.6</v>
+        <v>-17.6</v>
       </c>
       <c r="F6">
         <v>-22</v>
@@ -1400,7 +1399,7 @@
         <v>188.6</v>
       </c>
       <c r="E7">
-        <v>69.9</v>
+        <v>-69.9</v>
       </c>
       <c r="F7">
         <v>-39</v>
@@ -1420,7 +1419,7 @@
         <v>108.3</v>
       </c>
       <c r="E8">
-        <v>-17.1</v>
+        <v>17.1</v>
       </c>
       <c r="F8">
         <f>22</f>
@@ -1441,7 +1440,7 @@
         <v>198.5</v>
       </c>
       <c r="E9">
-        <v>-21.5</v>
+        <v>21.5</v>
       </c>
       <c r="F9">
         <v>48</v>
@@ -1461,7 +1460,7 @@
         <v>80.2</v>
       </c>
       <c r="E10">
-        <v>-23</v>
+        <v>23</v>
       </c>
       <c r="F10">
         <v>36</v>
@@ -1481,7 +1480,7 @@
         <v>126.8</v>
       </c>
       <c r="E11">
-        <v>-91.5</v>
+        <v>91.5</v>
       </c>
       <c r="F11">
         <v>79</v>
@@ -1501,7 +1500,7 @@
         <v>31.5</v>
       </c>
       <c r="E12">
-        <v>-5.8</v>
+        <v>5.8</v>
       </c>
       <c r="F12">
         <v>24</v>
@@ -1521,7 +1520,7 @@
         <v>31.5</v>
       </c>
       <c r="E13">
-        <v>-32.3</v>
+        <v>32.3</v>
       </c>
       <c r="F13">
         <v>58</v>
